--- a/xls stuff/reward2.xlsx
+++ b/xls stuff/reward2.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdine\Documents\UVA_Spring2020\CS 6501 - Cyberphysical Systems\finalproject\xls stuff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D075F83-680C-4FD6-AFF4-46242FBF5CBF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3673B773-247F-477B-871C-6E1236830F83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="4065" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{821CE4C5-CCC8-4057-BE03-1C0F0E7F3858}"/>
+    <workbookView xWindow="5966" yWindow="4423" windowWidth="22894" windowHeight="11520" activeTab="1" xr2:uid="{821CE4C5-CCC8-4057-BE03-1C0F0E7F3858}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>agent</t>
   </si>
@@ -200,6 +200,30 @@
   </si>
   <si>
     <t>overdonation</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Y / (Y+N)</t>
+  </si>
+  <si>
+    <t>2 (1 init)</t>
+  </si>
+  <si>
+    <t>55 (1 init)</t>
+  </si>
+  <si>
+    <t>1162 (1 init)</t>
+  </si>
+  <si>
+    <t>27065 (1 init)</t>
   </si>
 </sst>
 </file>
@@ -208,8 +232,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -300,8 +324,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -3381,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC8B534-49D1-4EAA-A399-A1D369FEAC3A}">
   <dimension ref="B14:Q95"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3806,7 +3830,7 @@
         <v>3</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" ref="I33:I71" si="5">(F33/H33)*(1.5*2) / 100</f>
+        <f t="shared" ref="I33:I70" si="5">(F33/H33)*(1.5*2) / 100</f>
         <v>2</v>
       </c>
     </row>
@@ -4482,11 +4506,133 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF400C4-4250-4010-B026-E5DA2132DDAB}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="10.69140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>48</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f>C3/(C3+D3)</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <v>141</v>
+      </c>
+      <c r="D4">
+        <v>1009</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4">
+        <f>C4/(C4+D4)</f>
+        <v>0.12260869565217392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5">
+        <v>2724</v>
+      </c>
+      <c r="D5">
+        <v>8766</v>
+      </c>
+      <c r="E5">
+        <v>85</v>
+      </c>
+      <c r="F5">
+        <f>C5/(C5+D5)</f>
+        <v>0.23707571801566579</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82F61271-9515-497B-83CA-A3F0EAE77034}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -4661,7 +4807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FC2F769-CFAA-49A8-93E0-F5B88726C145}">
   <dimension ref="A1:D8"/>
   <sheetViews>
@@ -4711,7 +4857,7 @@
         <v>90</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D7" si="0">C3/B3*150</f>
+        <f t="shared" ref="D3:D5" si="0">C3/B3*150</f>
         <v>135</v>
       </c>
     </row>
@@ -4793,11 +4939,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1601CAAA-4840-426E-B0BB-88A3D28858A5}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A64" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -5513,7 +5659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E498F45-2060-4275-83D1-95C563EDA53F}">
   <dimension ref="D8:J12"/>
   <sheetViews>
